--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_7_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_7_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1149511.517316992</v>
+        <v>1111474.901135715</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>421727.3537779179</v>
+        <v>421727.353777918</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>64.87565376460732</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>274.2838073416025</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G2" t="n">
-        <v>99.0790776710439</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
         <v>0.6592771345624158</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>249.98934675</v>
+        <v>121.6913440871849</v>
       </c>
       <c r="X3" t="n">
-        <v>67.01025899908372</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -828,22 +828,22 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>11.57657371040602</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>99.07907767104376</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>160.2040698085663</v>
       </c>
       <c r="F5" t="n">
-        <v>274.2838073416025</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G5" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="H5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="6">
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.3721256103448</v>
+        <v>26.73741661939495</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>121.6006499739766</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>86.50354346547167</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
         <v>203.671151418586</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>214.4088038782139</v>
+      </c>
+      <c r="E8" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>226.0751349680899</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G8" t="n">
         <v>14.85476540383092</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
         <v>0.6592771345624158</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>125.9059726800907</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
         <v>143.5062320835493</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>29.06750303117391</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>198.3825319082687</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
         <v>14.77440971783335</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>164.138716923775</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H11" t="n">
         <v>325.3930767845979</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>63.64170646647297</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S11" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.5149286494106</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>4.611048790896659</v>
       </c>
       <c r="X11" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>374.6652887682502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>171.025583927401</v>
+        <v>142.6717983888155</v>
       </c>
       <c r="D12" t="n">
         <v>146.1124235746456</v>
@@ -1466,10 +1466,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H12" t="n">
-        <v>104.0288287853824</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I12" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>64.66640004843207</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T12" t="n">
         <v>195.6974464808964</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5470007128763018</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>249.4273734210296</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>351.9951787813814</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>407.2938634805408</v>
@@ -1624,7 +1624,7 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H14" t="n">
-        <v>148.6837087419612</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1700,13 +1700,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3570519053243</v>
+        <v>53.66853612673689</v>
       </c>
       <c r="H15" t="n">
-        <v>104.0288287853824</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I15" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>53.33473024000175</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S15" t="n">
         <v>156.5880156630749</v>
@@ -1748,7 +1748,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>104.7330008953557</v>
+        <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>12.52081080016611</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>188.1701377682307</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>200.1772925700148</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.6097194764729</v>
@@ -1864,7 +1864,7 @@
         <v>325.3930767845979</v>
       </c>
       <c r="I17" t="n">
-        <v>108.8081187973139</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1934,10 +1934,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.3570519053243</v>
+        <v>133.606938134229</v>
       </c>
       <c r="H18" t="n">
         <v>104.0288287853823</v>
@@ -1991,7 +1991,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>58.41480556394149</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="19">
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>117.7011067713544</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
-        <v>50.42797305210065</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I20" t="n">
         <v>157.2246747536534</v>
@@ -2134,7 +2134,7 @@
         <v>177.493467653868</v>
       </c>
       <c r="T20" t="n">
-        <v>9.060354261980386</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U20" t="n">
         <v>251.3781599023558</v>
@@ -2149,7 +2149,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.6870717512358</v>
+        <v>163.4179037723833</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>20.11577975570017</v>
       </c>
       <c r="C21" t="n">
         <v>171.025583927401</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>53.33473024000175</v>
       </c>
       <c r="S21" t="n">
-        <v>64.66640004843207</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T21" t="n">
         <v>195.6974464808964</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>12.36163295078237</v>
       </c>
       <c r="H22" t="n">
-        <v>50.42797305210054</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>144.9314148707391</v>
       </c>
       <c r="D23" t="n">
-        <v>245.3486109742235</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>413.6097194764729</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>63.64170646647295</v>
       </c>
       <c r="S23" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H24" t="n">
-        <v>22.34031300679495</v>
+        <v>75.67504324679705</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>53.33473024000175</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>156.5880156630749</v>
@@ -2487,10 +2487,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>101.3418774742547</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.268352011225</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>141.506200678453</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>63.64170646647295</v>
       </c>
       <c r="S26" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>223.9115849495879</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.8691338914842</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>50.42797305210055</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>85.25969586131197</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>375.6086218366537</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
         <v>413.6097194764729</v>
@@ -2812,7 +2812,7 @@
         <v>325.3930767845979</v>
       </c>
       <c r="I29" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>63.64170646647295</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.6870717512358</v>
@@ -2873,10 +2873,10 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>25.76923807275637</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>0.8560777200009522</v>
       </c>
       <c r="E30" t="n">
         <v>156.0334337071738</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>49.35397375491782</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>43.404764716094</v>
+        <v>67.04135721806824</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>112.5389050336062</v>
+        <v>286.8169327017552</v>
       </c>
       <c r="H32" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I32" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
         <v>370.8615991311694</v>
@@ -3125,10 +3125,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H33" t="n">
-        <v>104.0288287853824</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I33" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>53.33473024000175</v>
       </c>
       <c r="S33" t="n">
-        <v>64.66640004843207</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T33" t="n">
         <v>195.6974464808964</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T34" t="n">
-        <v>50.4279730521006</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0218075870219</v>
+        <v>27.10882157431151</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>227.4443506999825</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>150.7816404373607</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V35" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3353,13 +3353,13 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>10.77708785252926</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>135.3570519053243</v>
+        <v>43.4354362906818</v>
       </c>
       <c r="H36" t="n">
         <v>104.0288287853824</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>53.33473024000175</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>156.5880156630749</v>
@@ -3429,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>23.83803839953822</v>
+        <v>101.2374096699048</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>50.57363449565867</v>
       </c>
       <c r="C38" t="n">
-        <v>353.1257564075747</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>407.2938634805408</v>
@@ -3520,10 +3520,10 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H38" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>104.0288287853824</v>
       </c>
       <c r="I39" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>53.33473024000175</v>
       </c>
       <c r="S39" t="n">
-        <v>11.33166980843018</v>
+        <v>74.89949988448734</v>
       </c>
       <c r="T39" t="n">
         <v>195.6974464808964</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>4.698311182026178</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>83.51342957218313</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
         <v>413.6097194764729</v>
       </c>
       <c r="H41" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>63.64170646647295</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>170.5665990554378</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>160.0956237593641</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.6870717512358</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>53.33473024000175</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S42" t="n">
         <v>156.5880156630749</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>161.5792308851202</v>
       </c>
       <c r="U43" t="n">
-        <v>83.51342957218324</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>401.1922500125542</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>28.81632008466431</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -4070,13 +4070,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.3570519053243</v>
+        <v>53.66853612673689</v>
       </c>
       <c r="H45" t="n">
-        <v>104.0288287853824</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I45" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S45" t="n">
-        <v>64.66640004843207</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T45" t="n">
         <v>195.6974464808964</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>23.03042434037949</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.3311041893321</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>161.5792308851202</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>676.7972192224913</v>
+        <v>529.3326250203188</v>
       </c>
       <c r="C2" t="n">
-        <v>676.7972192224913</v>
+        <v>529.3326250203188</v>
       </c>
       <c r="D2" t="n">
-        <v>676.7972192224913</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="E2" t="n">
-        <v>399.7428683723877</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="F2" t="n">
-        <v>122.6885175222841</v>
+        <v>244.9107353009821</v>
       </c>
       <c r="G2" t="n">
-        <v>22.6086410868862</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="H2" t="n">
-        <v>22.6086410868862</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I2" t="n">
-        <v>22.6086410868862</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J2" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K2" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L2" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M2" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N2" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O2" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P2" t="n">
         <v>1093.116282134284</v>
@@ -4354,28 +4354,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R2" t="n">
-        <v>953.8515700725949</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S2" t="n">
-        <v>953.8515700725949</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T2" t="n">
-        <v>953.8515700725949</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U2" t="n">
-        <v>953.8515700725949</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="V2" t="n">
-        <v>953.8515700725949</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="W2" t="n">
-        <v>953.8515700725949</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="X2" t="n">
-        <v>953.8515700725949</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="Y2" t="n">
-        <v>676.7972192224913</v>
+        <v>594.8635884189121</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.3200212191178</v>
+        <v>246.717203244413</v>
       </c>
       <c r="C3" t="n">
-        <v>109.3200212191178</v>
+        <v>246.717203244413</v>
       </c>
       <c r="D3" t="n">
-        <v>109.3200212191178</v>
+        <v>246.717203244413</v>
       </c>
       <c r="E3" t="n">
-        <v>109.3200212191178</v>
+        <v>246.717203244413</v>
       </c>
       <c r="F3" t="n">
-        <v>109.3200212191178</v>
+        <v>246.717203244413</v>
       </c>
       <c r="G3" t="n">
         <v>109.3200212191178</v>
@@ -4409,25 +4409,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J3" t="n">
-        <v>29.33601543381311</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K3" t="n">
-        <v>168.5779744919641</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L3" t="n">
-        <v>359.1441712859059</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M3" t="n">
-        <v>630.6851405540924</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N3" t="n">
-        <v>630.6851405540924</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O3" t="n">
-        <v>898.5647595314132</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P3" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
@@ -4436,25 +4436,25 @@
         <v>1001.483734658237</v>
       </c>
       <c r="S3" t="n">
-        <v>830.8154377838489</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T3" t="n">
-        <v>830.8154377838489</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="U3" t="n">
-        <v>830.8154377838489</v>
+        <v>603.8889963018272</v>
       </c>
       <c r="V3" t="n">
-        <v>596.5641943094497</v>
+        <v>369.6377528274281</v>
       </c>
       <c r="W3" t="n">
-        <v>344.049702642783</v>
+        <v>246.717203244413</v>
       </c>
       <c r="X3" t="n">
-        <v>276.3625723406782</v>
+        <v>246.717203244413</v>
       </c>
       <c r="Y3" t="n">
-        <v>276.3625723406782</v>
+        <v>246.717203244413</v>
       </c>
     </row>
     <row r="4">
@@ -4476,25 +4476,25 @@
         <v>33.63621338571812</v>
       </c>
       <c r="F4" t="n">
-        <v>21.9427045873282</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="G4" t="n">
-        <v>21.9427045873282</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="H4" t="n">
-        <v>21.9427045873282</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="I4" t="n">
-        <v>21.9427045873282</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="J4" t="n">
-        <v>21.9427045873282</v>
+        <v>33.63621338571812</v>
       </c>
       <c r="K4" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="L4" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M4" t="n">
         <v>108.7246574309869</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>953.8515700725949</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="C5" t="n">
-        <v>953.8515700725949</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="D5" t="n">
-        <v>853.7716936371971</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="E5" t="n">
-        <v>853.7716936371971</v>
+        <v>307.0305308062229</v>
       </c>
       <c r="F5" t="n">
-        <v>576.7173427870935</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="G5" t="n">
-        <v>299.6629919369898</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H5" t="n">
-        <v>22.6086410868862</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I5" t="n">
-        <v>22.6086410868862</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J5" t="n">
         <v>21.9427045873282</v>
@@ -4576,43 +4576,43 @@
         <v>345.6915471007955</v>
       </c>
       <c r="M5" t="n">
-        <v>586.168979562391</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N5" t="n">
-        <v>815.0204133003605</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O5" t="n">
-        <v>984.9899813536999</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P5" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q5" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>953.8515700725949</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S5" t="n">
-        <v>953.8515700725949</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T5" t="n">
-        <v>953.8515700725949</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U5" t="n">
-        <v>953.8515700725949</v>
+        <v>745.907174392252</v>
       </c>
       <c r="V5" t="n">
-        <v>953.8515700725949</v>
+        <v>745.907174392252</v>
       </c>
       <c r="W5" t="n">
-        <v>953.8515700725949</v>
+        <v>745.907174392252</v>
       </c>
       <c r="X5" t="n">
-        <v>953.8515700725949</v>
+        <v>745.907174392252</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.8515700725949</v>
+        <v>468.8528235421485</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>628.7127477603271</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="C6" t="n">
-        <v>628.7127477603271</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="D6" t="n">
-        <v>481.124441119271</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="E6" t="n">
-        <v>481.124441119271</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="F6" t="n">
-        <v>358.2955017516178</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8983197263226</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="H6" t="n">
         <v>109.3200212191178</v>
@@ -4649,19 +4649,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K6" t="n">
-        <v>161.1846636454791</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1846636454791</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M6" t="n">
-        <v>277.9660032696081</v>
+        <v>476.5364731046047</v>
       </c>
       <c r="N6" t="n">
-        <v>549.5069725377946</v>
+        <v>748.0774423727912</v>
       </c>
       <c r="O6" t="n">
-        <v>817.3865915151152</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P6" t="n">
         <v>1015.957061350112</v>
@@ -4676,22 +4676,22 @@
         <v>1001.483734658237</v>
       </c>
       <c r="T6" t="n">
-        <v>1001.483734658237</v>
+        <v>801.0973387912989</v>
       </c>
       <c r="U6" t="n">
-        <v>1001.483734658237</v>
+        <v>801.0973387912989</v>
       </c>
       <c r="V6" t="n">
-        <v>1001.483734658237</v>
+        <v>801.0973387912989</v>
       </c>
       <c r="W6" t="n">
-        <v>1001.483734658237</v>
+        <v>548.5828471246322</v>
       </c>
       <c r="X6" t="n">
-        <v>1001.483734658237</v>
+        <v>342.0559485302097</v>
       </c>
       <c r="Y6" t="n">
-        <v>795.7552988818876</v>
+        <v>136.3275127538601</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="H7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="I7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="J7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="L7" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M7" t="n">
         <v>108.7246574309869</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>543.0265276662028</v>
+        <v>745.907174392252</v>
       </c>
       <c r="C8" t="n">
-        <v>543.0265276662028</v>
+        <v>745.907174392252</v>
       </c>
       <c r="D8" t="n">
-        <v>265.9721768160992</v>
+        <v>529.3326250203188</v>
       </c>
       <c r="E8" t="n">
-        <v>265.9721768160992</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="F8" t="n">
-        <v>37.61345462610936</v>
+        <v>244.9107353009821</v>
       </c>
       <c r="G8" t="n">
-        <v>22.6086410868862</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="H8" t="n">
-        <v>22.6086410868862</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I8" t="n">
-        <v>22.6086410868862</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J8" t="n">
         <v>21.9427045873282</v>
@@ -4819,37 +4819,37 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O8" t="n">
-        <v>984.9899813536999</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P8" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q8" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="V8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="W8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="X8" t="n">
-        <v>820.0808785163065</v>
+        <v>745.907174392252</v>
       </c>
       <c r="Y8" t="n">
-        <v>820.0808785163065</v>
+        <v>745.907174392252</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>630.4290419169108</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="C9" t="n">
-        <v>630.4290419169108</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="D9" t="n">
-        <v>630.4290419169108</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E9" t="n">
         <v>503.251291735001</v>
@@ -4883,22 +4883,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K9" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L9" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="M9" t="n">
-        <v>277.9660032696081</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N9" t="n">
-        <v>549.5069725377946</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O9" t="n">
-        <v>817.3865915151152</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P9" t="n">
         <v>1015.957061350112</v>
@@ -4907,28 +4907,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>1001.483734658237</v>
+        <v>1067.774115193507</v>
       </c>
       <c r="S9" t="n">
-        <v>830.8154377838489</v>
+        <v>1067.774115193507</v>
       </c>
       <c r="T9" t="n">
-        <v>630.4290419169108</v>
+        <v>867.3877193265688</v>
       </c>
       <c r="U9" t="n">
-        <v>630.4290419169108</v>
+        <v>867.3877193265688</v>
       </c>
       <c r="V9" t="n">
-        <v>630.4290419169108</v>
+        <v>867.3877193265688</v>
       </c>
       <c r="W9" t="n">
-        <v>630.4290419169108</v>
+        <v>867.3877193265688</v>
       </c>
       <c r="X9" t="n">
-        <v>630.4290419169108</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="Y9" t="n">
-        <v>630.4290419169108</v>
+        <v>660.8608207321463</v>
       </c>
     </row>
     <row r="10">
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.86635076695785</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C10" t="n">
-        <v>36.86635076695785</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D10" t="n">
-        <v>36.86635076695785</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E10" t="n">
-        <v>36.86635076695785</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F10" t="n">
-        <v>36.86635076695785</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G10" t="n">
-        <v>36.86635076695785</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="H10" t="n">
-        <v>36.86635076695785</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="I10" t="n">
-        <v>36.86635076695785</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="J10" t="n">
-        <v>36.86635076695785</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="L10" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M10" t="n">
         <v>108.7246574309869</v>
@@ -4992,22 +4992,22 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T10" t="n">
-        <v>36.86635076695785</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U10" t="n">
-        <v>36.86635076695785</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V10" t="n">
-        <v>36.86635076695785</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W10" t="n">
-        <v>36.86635076695785</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X10" t="n">
-        <v>36.86635076695785</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y10" t="n">
-        <v>36.86635076695785</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>379.3913075309111</v>
+        <v>1915.065634465559</v>
       </c>
       <c r="C11" t="n">
-        <v>379.3913075309111</v>
+        <v>1544.373618628243</v>
       </c>
       <c r="D11" t="n">
-        <v>379.3913075309111</v>
+        <v>1184.166817866023</v>
       </c>
       <c r="E11" t="n">
-        <v>379.3913075309111</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="F11" t="n">
-        <v>379.3913075309111</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G11" t="n">
         <v>379.3913075309111</v>
@@ -5041,19 +5041,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J11" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K11" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L11" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535822</v>
       </c>
       <c r="M11" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N11" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O11" t="n">
         <v>2113.071138623965</v>
@@ -5068,25 +5068,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S11" t="n">
-        <v>2292.00071659582</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T11" t="n">
-        <v>2072.288667455001</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="U11" t="n">
-        <v>1818.371334220299</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="V11" t="n">
-        <v>1486.519595308663</v>
+        <v>1919.723259506869</v>
       </c>
       <c r="W11" t="n">
-        <v>1132.448770055577</v>
+        <v>1915.065634465559</v>
       </c>
       <c r="X11" t="n">
-        <v>757.8410941655072</v>
+        <v>1915.065634465559</v>
       </c>
       <c r="Y11" t="n">
-        <v>379.3913075309111</v>
+        <v>1915.065634465559</v>
       </c>
     </row>
     <row r="12">
@@ -5096,31 +5096,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>979.6320219500381</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C12" t="n">
-        <v>806.8789068718552</v>
+        <v>742.6689775021005</v>
       </c>
       <c r="D12" t="n">
-        <v>659.290600230799</v>
+        <v>595.0806708610443</v>
       </c>
       <c r="E12" t="n">
-        <v>501.6810712336537</v>
+        <v>437.471141863899</v>
       </c>
       <c r="F12" t="n">
-        <v>356.7252812502705</v>
+        <v>292.5153518805158</v>
       </c>
       <c r="G12" t="n">
-        <v>220.0009863964077</v>
+        <v>155.7910570266529</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I12" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J12" t="n">
-        <v>120.4127199202216</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K12" t="n">
         <v>366.1489360814929</v>
@@ -5129,13 +5129,13 @@
         <v>757.4212114061545</v>
       </c>
       <c r="M12" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N12" t="n">
-        <v>1620.913172155677</v>
+        <v>1805.095121106633</v>
       </c>
       <c r="O12" t="n">
-        <v>2045.703836711752</v>
+        <v>2229.885785662707</v>
       </c>
       <c r="P12" t="n">
         <v>2370.209254145837</v>
@@ -5147,25 +5147,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S12" t="n">
-        <v>2470.252003537142</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T12" t="n">
-        <v>2272.5778151726</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U12" t="n">
-        <v>2045.695642583436</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V12" t="n">
-        <v>1811.444399109037</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W12" t="n">
-        <v>1558.92990744237</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X12" t="n">
-        <v>1352.403008847948</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y12" t="n">
-        <v>1146.674573071598</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>347.8619604403699</v>
+        <v>199.170648327478</v>
       </c>
       <c r="C13" t="n">
-        <v>347.8619604403699</v>
+        <v>199.170648327478</v>
       </c>
       <c r="D13" t="n">
-        <v>347.8619604403699</v>
+        <v>199.170648327478</v>
       </c>
       <c r="E13" t="n">
-        <v>347.8619604403699</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F13" t="n">
-        <v>347.3094344677676</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G13" t="n">
-        <v>347.3094344677676</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H13" t="n">
-        <v>189.0582880536082</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I13" t="n">
         <v>50.71143199091319</v>
@@ -5208,43 +5208,43 @@
         <v>219.6093352368815</v>
       </c>
       <c r="M13" t="n">
-        <v>355.9743406206214</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N13" t="n">
-        <v>494.2381528619502</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O13" t="n">
-        <v>606.6105655578847</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P13" t="n">
-        <v>679.5420961591333</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q13" t="n">
-        <v>679.5420961591333</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R13" t="n">
-        <v>529.7646791178283</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S13" t="n">
-        <v>529.7646791178283</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T13" t="n">
-        <v>529.7646791178283</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U13" t="n">
-        <v>529.7646791178283</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V13" t="n">
-        <v>529.7646791178283</v>
+        <v>427.5952543197096</v>
       </c>
       <c r="W13" t="n">
-        <v>529.7646791178283</v>
+        <v>427.5952543197096</v>
       </c>
       <c r="X13" t="n">
-        <v>529.7646791178283</v>
+        <v>199.170648327478</v>
       </c>
       <c r="Y13" t="n">
-        <v>529.7646791178283</v>
+        <v>199.170648327478</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2147.979266221018</v>
+        <v>1235.45765596909</v>
       </c>
       <c r="C14" t="n">
-        <v>1777.287250383702</v>
+        <v>1235.45765596909</v>
       </c>
       <c r="D14" t="n">
-        <v>1417.080449621481</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="E14" t="n">
-        <v>1030.092534717151</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F14" t="n">
-        <v>618.6845918075132</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G14" t="n">
-        <v>200.8969963767325</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H14" t="n">
         <v>50.71143199091319</v>
@@ -5278,13 +5278,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J14" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K14" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L14" t="n">
-        <v>829.726164853582</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M14" t="n">
         <v>1286.636576300462</v>
@@ -5302,28 +5302,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R14" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S14" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T14" t="n">
-        <v>2535.571599545659</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="U14" t="n">
-        <v>2535.571599545659</v>
+        <v>1997.657665183802</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.571599545659</v>
+        <v>1997.657665183802</v>
       </c>
       <c r="W14" t="n">
-        <v>2535.571599545659</v>
+        <v>1997.657665183802</v>
       </c>
       <c r="X14" t="n">
-        <v>2535.571599545659</v>
+        <v>1623.049989293732</v>
       </c>
       <c r="Y14" t="n">
-        <v>2535.571599545659</v>
+        <v>1623.049989293732</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C15" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D15" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E15" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F15" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G15" t="n">
-        <v>220.0009863964077</v>
+        <v>155.7910570266529</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I15" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J15" t="n">
-        <v>120.4127199202216</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9669871305374</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L15" t="n">
-        <v>573.239262455199</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M15" t="n">
-        <v>1082.635746712845</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N15" t="n">
-        <v>1620.913172155677</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O15" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P15" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q15" t="n">
         <v>2535.571599545659</v>
@@ -5396,13 +5396,13 @@
         <v>1664.720817437679</v>
       </c>
       <c r="W15" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X15" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y15" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>390.6311794045657</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C16" t="n">
-        <v>390.6311794045657</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D16" t="n">
-        <v>390.6311794045657</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E16" t="n">
-        <v>390.6311794045657</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F16" t="n">
-        <v>377.9838957680342</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G16" t="n">
-        <v>208.9625784050725</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H16" t="n">
         <v>50.71143199091319</v>
@@ -5445,43 +5445,43 @@
         <v>219.6093352368815</v>
       </c>
       <c r="M16" t="n">
-        <v>355.9743406206214</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N16" t="n">
-        <v>494.2381528619502</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O16" t="n">
-        <v>606.6105655578847</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P16" t="n">
-        <v>679.5420961591333</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q16" t="n">
-        <v>679.5420961591333</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R16" t="n">
-        <v>679.5420961591333</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="S16" t="n">
-        <v>679.5420961591333</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="T16" t="n">
-        <v>679.5420961591333</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="U16" t="n">
-        <v>390.6311794045657</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="V16" t="n">
-        <v>390.6311794045657</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W16" t="n">
-        <v>390.6311794045657</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X16" t="n">
-        <v>390.6311794045657</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y16" t="n">
-        <v>390.6311794045657</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1318.494036575687</v>
+        <v>1386.36610329028</v>
       </c>
       <c r="C17" t="n">
-        <v>1318.494036575687</v>
+        <v>1386.36610329028</v>
       </c>
       <c r="D17" t="n">
-        <v>1318.494036575687</v>
+        <v>1184.166817866023</v>
       </c>
       <c r="E17" t="n">
-        <v>1318.494036575687</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="F17" t="n">
-        <v>907.0860936660492</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G17" t="n">
-        <v>489.2984982352685</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H17" t="n">
-        <v>160.6186226952706</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I17" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J17" t="n">
-        <v>154.6737472370291</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K17" t="n">
-        <v>432.7629010724806</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L17" t="n">
-        <v>829.7261648535817</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M17" t="n">
-        <v>1286.636576300461</v>
+        <v>1286.636576300462</v>
       </c>
       <c r="N17" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O17" t="n">
         <v>2113.071138623965</v>
@@ -5542,25 +5542,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S17" t="n">
-        <v>2471.287047559323</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T17" t="n">
-        <v>2471.287047559323</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U17" t="n">
-        <v>2471.287047559323</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="V17" t="n">
-        <v>2471.287047559323</v>
+        <v>1740.436928543366</v>
       </c>
       <c r="W17" t="n">
-        <v>2471.287047559323</v>
+        <v>1386.36610329028</v>
       </c>
       <c r="X17" t="n">
-        <v>2096.679371669253</v>
+        <v>1386.36610329028</v>
       </c>
       <c r="Y17" t="n">
-        <v>1706.086369900328</v>
+        <v>1386.36610329028</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C18" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D18" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E18" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F18" t="n">
-        <v>356.7252812502705</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="G18" t="n">
         <v>220.0009863964076</v>
@@ -5597,22 +5597,22 @@
         <v>50.71143199091319</v>
       </c>
       <c r="K18" t="n">
-        <v>296.4476481521845</v>
+        <v>181.9669871305373</v>
       </c>
       <c r="L18" t="n">
-        <v>687.7199234768461</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M18" t="n">
-        <v>1197.116407734492</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N18" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O18" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P18" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q18" t="n">
         <v>2535.571599545659</v>
@@ -5639,7 +5639,7 @@
         <v>1205.67942717659</v>
       </c>
       <c r="Y18" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.71143199091319</v>
+        <v>169.6014388306651</v>
       </c>
       <c r="C19" t="n">
-        <v>50.71143199091319</v>
+        <v>169.6014388306651</v>
       </c>
       <c r="D19" t="n">
-        <v>50.71143199091319</v>
+        <v>169.6014388306651</v>
       </c>
       <c r="E19" t="n">
-        <v>50.71143199091319</v>
+        <v>169.6014388306651</v>
       </c>
       <c r="F19" t="n">
-        <v>50.71143199091319</v>
+        <v>169.6014388306651</v>
       </c>
       <c r="G19" t="n">
         <v>50.71143199091319</v>
@@ -5706,19 +5706,19 @@
         <v>679.5420961591335</v>
       </c>
       <c r="U19" t="n">
-        <v>390.6311794045659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V19" t="n">
-        <v>390.6311794045659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W19" t="n">
-        <v>101.6487785081866</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="X19" t="n">
-        <v>50.71143199091319</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.71143199091319</v>
+        <v>169.6014388306651</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>940.4230513719177</v>
+        <v>1342.979620647491</v>
       </c>
       <c r="C20" t="n">
-        <v>569.7310355346019</v>
+        <v>1342.979620647491</v>
       </c>
       <c r="D20" t="n">
-        <v>209.5242347723813</v>
+        <v>1342.979620647491</v>
       </c>
       <c r="E20" t="n">
-        <v>209.5242347723813</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="F20" t="n">
-        <v>209.5242347723813</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="G20" t="n">
-        <v>209.5242347723813</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="H20" t="n">
         <v>209.5242347723813</v>
@@ -5782,22 +5782,22 @@
         <v>2356.285268582156</v>
       </c>
       <c r="T20" t="n">
-        <v>2347.133395590257</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="U20" t="n">
-        <v>2093.216062355554</v>
+        <v>1882.655886206635</v>
       </c>
       <c r="V20" t="n">
-        <v>2093.216062355554</v>
+        <v>1882.655886206635</v>
       </c>
       <c r="W20" t="n">
-        <v>2093.216062355554</v>
+        <v>1882.655886206635</v>
       </c>
       <c r="X20" t="n">
-        <v>1718.608386465484</v>
+        <v>1508.048210316565</v>
       </c>
       <c r="Y20" t="n">
-        <v>1328.015384696559</v>
+        <v>1342.979620647491</v>
       </c>
     </row>
     <row r="21">
@@ -5834,49 +5834,49 @@
         <v>50.71143199091319</v>
       </c>
       <c r="K21" t="n">
-        <v>181.9669871305374</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L21" t="n">
-        <v>573.239262455199</v>
+        <v>687.719923476846</v>
       </c>
       <c r="M21" t="n">
-        <v>1082.635746712845</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N21" t="n">
-        <v>1620.913172155677</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O21" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P21" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q21" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R21" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S21" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T21" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U21" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V21" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W21" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X21" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y21" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>101.6487785081865</v>
+        <v>497.639377481675</v>
       </c>
       <c r="C22" t="n">
-        <v>101.6487785081865</v>
+        <v>497.639377481675</v>
       </c>
       <c r="D22" t="n">
-        <v>101.6487785081865</v>
+        <v>497.639377481675</v>
       </c>
       <c r="E22" t="n">
-        <v>101.6487785081865</v>
+        <v>349.1801611451101</v>
       </c>
       <c r="F22" t="n">
-        <v>101.6487785081865</v>
+        <v>201.5447859836914</v>
       </c>
       <c r="G22" t="n">
-        <v>101.6487785081865</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="H22" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I22" t="n">
         <v>50.71143199091319</v>
@@ -5943,19 +5943,19 @@
         <v>679.5420961591334</v>
       </c>
       <c r="U22" t="n">
-        <v>390.6311794045658</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="V22" t="n">
-        <v>390.6311794045658</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="W22" t="n">
-        <v>101.6487785081865</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="X22" t="n">
-        <v>101.6487785081865</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Y22" t="n">
-        <v>101.6487785081865</v>
+        <v>679.5420961591334</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2002.214443329071</v>
+        <v>1489.374989203793</v>
       </c>
       <c r="C23" t="n">
-        <v>2002.214443329071</v>
+        <v>1342.979620647491</v>
       </c>
       <c r="D23" t="n">
-        <v>1754.387563557128</v>
+        <v>1342.979620647491</v>
       </c>
       <c r="E23" t="n">
-        <v>1367.399648652797</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="F23" t="n">
         <v>955.9917057431599</v>
@@ -5989,16 +5989,16 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J23" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370293</v>
       </c>
       <c r="K23" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724809</v>
       </c>
       <c r="L23" t="n">
-        <v>829.7261648535817</v>
+        <v>829.726164853582</v>
       </c>
       <c r="M23" t="n">
-        <v>1286.636576300461</v>
+        <v>1286.636576300462</v>
       </c>
       <c r="N23" t="n">
         <v>1735.423100897411</v>
@@ -6013,28 +6013,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R23" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S23" t="n">
-        <v>2356.285268582156</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T23" t="n">
-        <v>2356.285268582156</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="U23" t="n">
-        <v>2356.285268582156</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="V23" t="n">
-        <v>2356.285268582156</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="W23" t="n">
-        <v>2002.214443329071</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="X23" t="n">
-        <v>2002.214443329071</v>
+        <v>1876.967322528434</v>
       </c>
       <c r="Y23" t="n">
-        <v>2002.214443329071</v>
+        <v>1876.967322528434</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>832.9084402786798</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C24" t="n">
-        <v>660.1553252004969</v>
+        <v>714.0287900893879</v>
       </c>
       <c r="D24" t="n">
-        <v>512.5670185594408</v>
+        <v>566.4404834483319</v>
       </c>
       <c r="E24" t="n">
-        <v>354.9574895622956</v>
+        <v>408.8309544511866</v>
       </c>
       <c r="F24" t="n">
-        <v>210.0016995789124</v>
+        <v>263.8751644678034</v>
       </c>
       <c r="G24" t="n">
-        <v>73.27740472504951</v>
+        <v>127.1508696139405</v>
       </c>
       <c r="H24" t="n">
         <v>50.71143199091319</v>
@@ -6068,52 +6068,52 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J24" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K24" t="n">
-        <v>366.1489360814929</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L24" t="n">
-        <v>757.4212114061545</v>
+        <v>687.719923476846</v>
       </c>
       <c r="M24" t="n">
-        <v>1266.817695663801</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N24" t="n">
-        <v>1805.095121106633</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O24" t="n">
-        <v>2229.885785662707</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P24" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q24" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R24" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S24" t="n">
-        <v>2323.528421865784</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T24" t="n">
-        <v>2125.854233501242</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U24" t="n">
-        <v>1898.972060912078</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V24" t="n">
-        <v>1664.720817437679</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W24" t="n">
-        <v>1412.206325771012</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X24" t="n">
-        <v>1205.67942717659</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y24" t="n">
-        <v>999.9509914002402</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>346.8060234888967</v>
+        <v>301.5361811297555</v>
       </c>
       <c r="C25" t="n">
-        <v>346.8060234888967</v>
+        <v>301.5361811297555</v>
       </c>
       <c r="D25" t="n">
-        <v>346.8060234888967</v>
+        <v>301.5361811297555</v>
       </c>
       <c r="E25" t="n">
-        <v>198.3468071523319</v>
+        <v>153.0769647931907</v>
       </c>
       <c r="F25" t="n">
-        <v>50.71143199091319</v>
+        <v>153.0769647931907</v>
       </c>
       <c r="G25" t="n">
         <v>50.71143199091319</v>
@@ -6171,28 +6171,28 @@
         <v>679.5420961591334</v>
       </c>
       <c r="R25" t="n">
-        <v>679.5420961591334</v>
+        <v>529.7646791178285</v>
       </c>
       <c r="S25" t="n">
-        <v>679.5420961591334</v>
+        <v>529.7646791178285</v>
       </c>
       <c r="T25" t="n">
-        <v>575.2306294811283</v>
+        <v>301.5361811297555</v>
       </c>
       <c r="U25" t="n">
-        <v>575.2306294811283</v>
+        <v>301.5361811297555</v>
       </c>
       <c r="V25" t="n">
-        <v>575.2306294811283</v>
+        <v>301.5361811297555</v>
       </c>
       <c r="W25" t="n">
-        <v>575.2306294811283</v>
+        <v>301.5361811297555</v>
       </c>
       <c r="X25" t="n">
-        <v>346.8060234888967</v>
+        <v>301.5361811297555</v>
       </c>
       <c r="Y25" t="n">
-        <v>346.8060234888967</v>
+        <v>301.5361811297555</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1098.927261984021</v>
+        <v>1168.59816349478</v>
       </c>
       <c r="C26" t="n">
-        <v>1098.927261984021</v>
+        <v>797.9061476574645</v>
       </c>
       <c r="D26" t="n">
-        <v>1098.927261984021</v>
+        <v>437.699346895244</v>
       </c>
       <c r="E26" t="n">
-        <v>1098.927261984021</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F26" t="n">
-        <v>955.9917057431599</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G26" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H26" t="n">
-        <v>209.5242347723813</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I26" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J26" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370293</v>
       </c>
       <c r="K26" t="n">
-        <v>432.7629010724813</v>
+        <v>432.7629010724809</v>
       </c>
       <c r="L26" t="n">
-        <v>829.7261648535823</v>
+        <v>829.726164853582</v>
       </c>
       <c r="M26" t="n">
         <v>1286.636576300462</v>
@@ -6253,25 +6253,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S26" t="n">
-        <v>2292.00071659582</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T26" t="n">
-        <v>2072.288667455001</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U26" t="n">
-        <v>1818.371334220299</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V26" t="n">
-        <v>1486.519595308663</v>
+        <v>2139.435308647688</v>
       </c>
       <c r="W26" t="n">
-        <v>1486.519595308663</v>
+        <v>1785.364483394602</v>
       </c>
       <c r="X26" t="n">
-        <v>1486.519595308663</v>
+        <v>1559.191165263705</v>
       </c>
       <c r="Y26" t="n">
-        <v>1486.519595308663</v>
+        <v>1168.59816349478</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J27" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K27" t="n">
-        <v>296.4476481521845</v>
+        <v>181.9669871305374</v>
       </c>
       <c r="L27" t="n">
-        <v>687.719923476846</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M27" t="n">
-        <v>1197.116407734492</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N27" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O27" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P27" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q27" t="n">
         <v>2535.571599545659</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="C28" t="n">
-        <v>50.71143199091319</v>
+        <v>510.5152750165048</v>
       </c>
       <c r="D28" t="n">
-        <v>50.71143199091319</v>
+        <v>360.0046017695155</v>
       </c>
       <c r="E28" t="n">
-        <v>50.71143199091319</v>
+        <v>360.0046017695155</v>
       </c>
       <c r="F28" t="n">
-        <v>50.71143199091319</v>
+        <v>360.0046017695155</v>
       </c>
       <c r="G28" t="n">
-        <v>50.71143199091319</v>
+        <v>190.9832844065538</v>
       </c>
       <c r="H28" t="n">
         <v>50.71143199091319</v>
@@ -6417,19 +6417,19 @@
         <v>679.5420961591334</v>
       </c>
       <c r="U28" t="n">
-        <v>390.6311794045658</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="V28" t="n">
-        <v>339.6938328872925</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="W28" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="X28" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Y28" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591334</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1706.086369900328</v>
+        <v>1681.695665686076</v>
       </c>
       <c r="C29" t="n">
-        <v>1335.394354063012</v>
+        <v>1595.57476077566</v>
       </c>
       <c r="D29" t="n">
-        <v>1335.394354063012</v>
+        <v>1595.57476077566</v>
       </c>
       <c r="E29" t="n">
-        <v>1335.394354063012</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="F29" t="n">
-        <v>955.9917057431599</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G29" t="n">
-        <v>538.2041103123792</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H29" t="n">
-        <v>209.5242347723813</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I29" t="n">
         <v>50.71143199091319</v>
@@ -6466,10 +6466,10 @@
         <v>154.6737472370294</v>
       </c>
       <c r="K29" t="n">
-        <v>432.7629010724812</v>
+        <v>432.7629010724811</v>
       </c>
       <c r="L29" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M29" t="n">
         <v>1286.636576300462</v>
@@ -6490,25 +6490,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S29" t="n">
-        <v>2471.287047559323</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T29" t="n">
-        <v>2471.287047559323</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U29" t="n">
-        <v>2471.287047559323</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="V29" t="n">
-        <v>2471.287047559323</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="W29" t="n">
-        <v>2471.287047559323</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="X29" t="n">
-        <v>2096.679371669253</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="Y29" t="n">
-        <v>1706.086369900328</v>
+        <v>1681.695665686076</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>832.9084402786798</v>
       </c>
       <c r="C30" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D30" t="n">
         <v>659.290600230799</v>
@@ -6545,22 +6545,22 @@
         <v>120.4127199202217</v>
       </c>
       <c r="K30" t="n">
-        <v>347.3293325303595</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L30" t="n">
-        <v>738.601607855021</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.998092112667</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N30" t="n">
-        <v>1786.275517555499</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O30" t="n">
-        <v>2211.066182111574</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P30" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q30" t="n">
         <v>2535.571599545659</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>407.2742934839786</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="C31" t="n">
-        <v>407.2742934839786</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="D31" t="n">
-        <v>407.2742934839786</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="E31" t="n">
-        <v>258.8150771474138</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="F31" t="n">
-        <v>258.8150771474138</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="G31" t="n">
-        <v>258.8150771474138</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="H31" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I31" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J31" t="n">
         <v>50.71143199091319</v>
@@ -6651,22 +6651,22 @@
         <v>679.5420961591334</v>
       </c>
       <c r="T31" t="n">
-        <v>635.6988994762102</v>
+        <v>611.82355351462</v>
       </c>
       <c r="U31" t="n">
-        <v>635.6988994762102</v>
+        <v>611.82355351462</v>
       </c>
       <c r="V31" t="n">
-        <v>635.6988994762102</v>
+        <v>611.82355351462</v>
       </c>
       <c r="W31" t="n">
-        <v>635.6988994762102</v>
+        <v>611.82355351462</v>
       </c>
       <c r="X31" t="n">
-        <v>407.2742934839786</v>
+        <v>611.82355351462</v>
       </c>
       <c r="Y31" t="n">
-        <v>407.2742934839786</v>
+        <v>390.8652970825309</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1382.778588562023</v>
+        <v>1416.300096633579</v>
       </c>
       <c r="C32" t="n">
-        <v>1012.086572724707</v>
+        <v>1416.300096633579</v>
       </c>
       <c r="D32" t="n">
-        <v>651.8797719624864</v>
+        <v>1056.093295871358</v>
       </c>
       <c r="E32" t="n">
-        <v>651.8797719624864</v>
+        <v>669.1053809670275</v>
       </c>
       <c r="F32" t="n">
-        <v>651.8797719624864</v>
+        <v>669.1053809670275</v>
       </c>
       <c r="G32" t="n">
-        <v>538.2041103123792</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H32" t="n">
-        <v>209.5242347723813</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I32" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J32" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K32" t="n">
-        <v>432.7629010724811</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L32" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M32" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N32" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O32" t="n">
         <v>2113.071138623965</v>
@@ -6739,13 +6739,13 @@
         <v>2535.571599545659</v>
       </c>
       <c r="W32" t="n">
-        <v>2535.571599545659</v>
+        <v>2181.500774292574</v>
       </c>
       <c r="X32" t="n">
-        <v>2160.963923655589</v>
+        <v>1806.893098402504</v>
       </c>
       <c r="Y32" t="n">
-        <v>1770.370921886664</v>
+        <v>1416.300096633579</v>
       </c>
     </row>
     <row r="33">
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C33" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D33" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E33" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F33" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G33" t="n">
-        <v>220.0009863964077</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H33" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I33" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J33" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K33" t="n">
-        <v>181.9669871305374</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L33" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M33" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N33" t="n">
         <v>1620.913172155677</v>
@@ -6803,28 +6803,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R33" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S33" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T33" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U33" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V33" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W33" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X33" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y33" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="C34" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="D34" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="E34" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="F34" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="G34" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="H34" t="n">
         <v>50.71143199091319</v>
@@ -6885,25 +6885,25 @@
         <v>679.5420961591334</v>
       </c>
       <c r="S34" t="n">
-        <v>679.5420961591334</v>
+        <v>464.7698324521642</v>
       </c>
       <c r="T34" t="n">
-        <v>628.6047496418601</v>
+        <v>464.7698324521642</v>
       </c>
       <c r="U34" t="n">
-        <v>339.6938328872925</v>
+        <v>437.3871843973041</v>
       </c>
       <c r="V34" t="n">
-        <v>339.6938328872925</v>
+        <v>437.3871843973041</v>
       </c>
       <c r="W34" t="n">
-        <v>50.71143199091319</v>
+        <v>437.3871843973041</v>
       </c>
       <c r="X34" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="Y34" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1816.127527309382</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="C35" t="n">
-        <v>1445.435511472066</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="D35" t="n">
-        <v>1085.228710709845</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="E35" t="n">
-        <v>698.2407958055146</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F35" t="n">
-        <v>698.2407958055146</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G35" t="n">
-        <v>280.4532003747339</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H35" t="n">
         <v>50.71143199091319</v>
@@ -6937,13 +6937,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J35" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370293</v>
       </c>
       <c r="K35" t="n">
-        <v>432.7629010724811</v>
+        <v>432.7629010724809</v>
       </c>
       <c r="L35" t="n">
-        <v>829.7261648535821</v>
+        <v>829.726164853582</v>
       </c>
       <c r="M35" t="n">
         <v>1286.636576300462</v>
@@ -6964,25 +6964,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S35" t="n">
-        <v>2535.571599545659</v>
+        <v>2383.266912235194</v>
       </c>
       <c r="T35" t="n">
-        <v>2535.571599545659</v>
+        <v>2163.554863094375</v>
       </c>
       <c r="U35" t="n">
-        <v>2535.571599545659</v>
+        <v>1909.637529859672</v>
       </c>
       <c r="V35" t="n">
-        <v>2203.719860634023</v>
+        <v>1577.785790948037</v>
       </c>
       <c r="W35" t="n">
-        <v>2203.719860634023</v>
+        <v>1223.714965694951</v>
       </c>
       <c r="X35" t="n">
-        <v>2203.719860634023</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="Y35" t="n">
-        <v>2203.719860634023</v>
+        <v>849.1072898048812</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>832.9084402786798</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C36" t="n">
-        <v>660.1553252004969</v>
+        <v>714.0287900893879</v>
       </c>
       <c r="D36" t="n">
-        <v>512.5670185594408</v>
+        <v>566.4404834483319</v>
       </c>
       <c r="E36" t="n">
-        <v>501.6810712336537</v>
+        <v>408.8309544511866</v>
       </c>
       <c r="F36" t="n">
-        <v>356.7252812502705</v>
+        <v>263.8751644678034</v>
       </c>
       <c r="G36" t="n">
         <v>220.0009863964077</v>
@@ -7016,13 +7016,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J36" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K36" t="n">
-        <v>181.9669871305374</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L36" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M36" t="n">
         <v>1082.635746712845</v>
@@ -7040,28 +7040,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R36" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S36" t="n">
-        <v>2323.528421865784</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T36" t="n">
-        <v>2125.854233501242</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U36" t="n">
-        <v>1898.972060912078</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V36" t="n">
-        <v>1664.720817437679</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W36" t="n">
-        <v>1412.206325771012</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X36" t="n">
-        <v>1205.67942717659</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y36" t="n">
-        <v>999.9509914002402</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>243.8115760200751</v>
+        <v>451.1174901669018</v>
       </c>
       <c r="C37" t="n">
-        <v>243.8115760200751</v>
+        <v>451.1174901669018</v>
       </c>
       <c r="D37" t="n">
-        <v>243.8115760200751</v>
+        <v>300.6068169199125</v>
       </c>
       <c r="E37" t="n">
-        <v>243.8115760200751</v>
+        <v>300.6068169199125</v>
       </c>
       <c r="F37" t="n">
-        <v>243.8115760200751</v>
+        <v>152.9714417584939</v>
       </c>
       <c r="G37" t="n">
-        <v>74.79025865711341</v>
+        <v>152.9714417584939</v>
       </c>
       <c r="H37" t="n">
         <v>50.71143199091319</v>
@@ -7122,25 +7122,25 @@
         <v>679.5420961591334</v>
       </c>
       <c r="S37" t="n">
-        <v>464.7698324521642</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="T37" t="n">
-        <v>464.7698324521642</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="U37" t="n">
-        <v>464.7698324521642</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="V37" t="n">
-        <v>464.7698324521642</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="W37" t="n">
-        <v>464.7698324521642</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="X37" t="n">
-        <v>464.7698324521642</v>
+        <v>451.1174901669018</v>
       </c>
       <c r="Y37" t="n">
-        <v>243.8115760200751</v>
+        <v>451.1174901669018</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2471.287047559323</v>
+        <v>1240.113771093552</v>
       </c>
       <c r="C38" t="n">
-        <v>2114.594364319349</v>
+        <v>1240.113771093552</v>
       </c>
       <c r="D38" t="n">
-        <v>1754.387563557128</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="E38" t="n">
-        <v>1367.399648652797</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F38" t="n">
-        <v>955.9917057431599</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G38" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H38" t="n">
-        <v>209.5242347723813</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I38" t="n">
         <v>50.71143199091319</v>
@@ -7204,22 +7204,22 @@
         <v>2471.287047559323</v>
       </c>
       <c r="T38" t="n">
-        <v>2471.287047559323</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="U38" t="n">
-        <v>2471.287047559323</v>
+        <v>1997.657665183802</v>
       </c>
       <c r="V38" t="n">
-        <v>2471.287047559323</v>
+        <v>1665.805926272166</v>
       </c>
       <c r="W38" t="n">
-        <v>2471.287047559323</v>
+        <v>1665.805926272166</v>
       </c>
       <c r="X38" t="n">
-        <v>2471.287047559323</v>
+        <v>1291.198250382096</v>
       </c>
       <c r="Y38" t="n">
-        <v>2471.287047559323</v>
+        <v>1291.198250382096</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>979.6320219500381</v>
+        <v>915.4220925802833</v>
       </c>
       <c r="C39" t="n">
-        <v>806.8789068718552</v>
+        <v>742.6689775021005</v>
       </c>
       <c r="D39" t="n">
-        <v>659.290600230799</v>
+        <v>595.0806708610443</v>
       </c>
       <c r="E39" t="n">
-        <v>501.6810712336537</v>
+        <v>437.471141863899</v>
       </c>
       <c r="F39" t="n">
-        <v>356.7252812502705</v>
+        <v>292.5153518805159</v>
       </c>
       <c r="G39" t="n">
-        <v>220.0009863964077</v>
+        <v>155.791057026653</v>
       </c>
       <c r="H39" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I39" t="n">
         <v>50.71143199091319</v>
@@ -7280,25 +7280,25 @@
         <v>2481.698134656769</v>
       </c>
       <c r="S39" t="n">
-        <v>2470.252003537142</v>
+        <v>2406.042074167387</v>
       </c>
       <c r="T39" t="n">
-        <v>2272.5778151726</v>
+        <v>2208.367885802846</v>
       </c>
       <c r="U39" t="n">
-        <v>2045.695642583436</v>
+        <v>1981.485713213681</v>
       </c>
       <c r="V39" t="n">
-        <v>1811.444399109037</v>
+        <v>1747.234469739282</v>
       </c>
       <c r="W39" t="n">
-        <v>1558.92990744237</v>
+        <v>1494.719978072616</v>
       </c>
       <c r="X39" t="n">
-        <v>1352.403008847948</v>
+        <v>1288.193079478193</v>
       </c>
       <c r="Y39" t="n">
-        <v>1146.674573071598</v>
+        <v>1082.464643701844</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1906.740935377439</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="C40" t="n">
-        <v>1906.740935377439</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="D40" t="n">
-        <v>1906.740935377439</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="E40" t="n">
-        <v>1906.740935377439</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="F40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K40" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L40" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M40" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N40" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619503</v>
       </c>
       <c r="O40" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578848</v>
       </c>
       <c r="P40" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Q40" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="R40" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="S40" t="n">
-        <v>2535.571599545659</v>
+        <v>674.7963272883999</v>
       </c>
       <c r="T40" t="n">
-        <v>2535.571599545659</v>
+        <v>674.7963272883999</v>
       </c>
       <c r="U40" t="n">
-        <v>2451.214599977798</v>
+        <v>674.7963272883999</v>
       </c>
       <c r="V40" t="n">
-        <v>2195.723336273819</v>
+        <v>419.305063584421</v>
       </c>
       <c r="W40" t="n">
-        <v>1906.740935377439</v>
+        <v>419.305063584421</v>
       </c>
       <c r="X40" t="n">
-        <v>1906.740935377439</v>
+        <v>419.305063584421</v>
       </c>
       <c r="Y40" t="n">
-        <v>1906.740935377439</v>
+        <v>198.3468071523319</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1544.373618628243</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="C41" t="n">
-        <v>1544.373618628243</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="D41" t="n">
-        <v>1184.166817866023</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="E41" t="n">
-        <v>797.1789029616918</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F41" t="n">
-        <v>797.1789029616918</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G41" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H41" t="n">
         <v>50.71143199091319</v>
@@ -7414,16 +7414,16 @@
         <v>154.6737472370293</v>
       </c>
       <c r="K41" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724809</v>
       </c>
       <c r="L41" t="n">
-        <v>829.7261648535821</v>
+        <v>829.726164853582</v>
       </c>
       <c r="M41" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N41" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O41" t="n">
         <v>2113.071138623965</v>
@@ -7441,22 +7441,22 @@
         <v>2471.287047559323</v>
       </c>
       <c r="T41" t="n">
-        <v>2471.287047559323</v>
+        <v>2298.997553563931</v>
       </c>
       <c r="U41" t="n">
-        <v>2471.287047559323</v>
+        <v>2045.080220329229</v>
       </c>
       <c r="V41" t="n">
-        <v>2471.287047559323</v>
+        <v>2045.080220329229</v>
       </c>
       <c r="W41" t="n">
-        <v>2309.574296287238</v>
+        <v>2045.080220329229</v>
       </c>
       <c r="X41" t="n">
-        <v>1934.966620397168</v>
+        <v>2045.080220329229</v>
       </c>
       <c r="Y41" t="n">
-        <v>1544.373618628243</v>
+        <v>1654.487218560304</v>
       </c>
     </row>
     <row r="42">
@@ -7490,16 +7490,16 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J42" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K42" t="n">
-        <v>181.9669871305374</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L42" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M42" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N42" t="n">
         <v>1620.913172155677</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.71143199091319</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="C43" t="n">
-        <v>50.71143199091319</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="D43" t="n">
-        <v>50.71143199091319</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="E43" t="n">
-        <v>50.71143199091319</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="F43" t="n">
-        <v>50.71143199091319</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="G43" t="n">
-        <v>50.71143199091319</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="H43" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I43" t="n">
         <v>50.71143199091319</v>
@@ -7581,40 +7581,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N43" t="n">
-        <v>494.2381528619503</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O43" t="n">
-        <v>606.6105655578848</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P43" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q43" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R43" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S43" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T43" t="n">
-        <v>679.5420961591334</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="U43" t="n">
-        <v>595.1850965912715</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="V43" t="n">
-        <v>339.6938328872925</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="W43" t="n">
-        <v>50.71143199091319</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="X43" t="n">
-        <v>50.71143199091319</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.71143199091319</v>
+        <v>516.3307518307292</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1773.371590330948</v>
+        <v>1409.411788950115</v>
       </c>
       <c r="C44" t="n">
-        <v>1773.371590330948</v>
+        <v>1038.719773112799</v>
       </c>
       <c r="D44" t="n">
-        <v>1413.164789568727</v>
+        <v>1038.719773112799</v>
       </c>
       <c r="E44" t="n">
-        <v>1026.176874664397</v>
+        <v>1038.719773112799</v>
       </c>
       <c r="F44" t="n">
-        <v>614.7689317547593</v>
+        <v>627.3118302031619</v>
       </c>
       <c r="G44" t="n">
-        <v>209.5242347723813</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="H44" t="n">
-        <v>209.5242347723813</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="I44" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J44" t="n">
-        <v>154.6737472370295</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K44" t="n">
-        <v>432.7629010724812</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L44" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M44" t="n">
         <v>1286.636576300462</v>
@@ -7672,28 +7672,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R44" t="n">
-        <v>2535.571599545659</v>
+        <v>2506.464205520746</v>
       </c>
       <c r="S44" t="n">
-        <v>2535.571599545659</v>
+        <v>2506.464205520746</v>
       </c>
       <c r="T44" t="n">
-        <v>2535.571599545659</v>
+        <v>2506.464205520746</v>
       </c>
       <c r="U44" t="n">
-        <v>2535.571599545659</v>
+        <v>2506.464205520746</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.571599545659</v>
+        <v>2174.61246660911</v>
       </c>
       <c r="W44" t="n">
-        <v>2535.571599545659</v>
+        <v>2174.61246660911</v>
       </c>
       <c r="X44" t="n">
-        <v>2160.963923655589</v>
+        <v>1800.00479071904</v>
       </c>
       <c r="Y44" t="n">
-        <v>2160.963923655589</v>
+        <v>1409.411788950115</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C45" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D45" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E45" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F45" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G45" t="n">
-        <v>220.0009863964077</v>
+        <v>155.7910570266529</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I45" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J45" t="n">
-        <v>101.5931163690882</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K45" t="n">
-        <v>347.3293325303595</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L45" t="n">
-        <v>738.601607855021</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.998092112667</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N45" t="n">
-        <v>1786.275517555499</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O45" t="n">
-        <v>2211.066182111574</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P45" t="n">
-        <v>2535.571599545659</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q45" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R45" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S45" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T45" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V45" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W45" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X45" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y45" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>390.6311794045658</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="C46" t="n">
-        <v>390.6311794045658</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="D46" t="n">
-        <v>390.6311794045658</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="E46" t="n">
-        <v>367.3681245152936</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="F46" t="n">
-        <v>219.7327493538749</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="G46" t="n">
-        <v>50.71143199091319</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="H46" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I46" t="n">
         <v>50.71143199091319</v>
@@ -7818,40 +7818,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N46" t="n">
-        <v>494.2381528619503</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O46" t="n">
-        <v>606.6105655578848</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P46" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q46" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R46" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S46" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T46" t="n">
-        <v>679.5420961591334</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="U46" t="n">
-        <v>390.6311794045658</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="V46" t="n">
-        <v>390.6311794045658</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="W46" t="n">
-        <v>390.6311794045658</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="X46" t="n">
-        <v>390.6311794045658</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="Y46" t="n">
-        <v>390.6311794045658</v>
+        <v>516.3307518307292</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L2" t="n">
         <v>434.3676631324684</v>
@@ -7999,7 +7999,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q2" t="n">
-        <v>220.8075902863012</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R2" t="n">
         <v>68.34507666790174</v>
@@ -8057,16 +8057,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K3" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L3" t="n">
-        <v>327.5816281580459</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
-        <v>412.8644904155704</v>
+        <v>280.2420007006317</v>
       </c>
       <c r="N3" t="n">
         <v>128.05816928125</v>
@@ -8078,7 +8078,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8224,7 +8224,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M5" t="n">
-        <v>467.4940748325459</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N5" t="n">
         <v>454.8408013884635</v>
@@ -8297,13 +8297,13 @@
         <v>123.666686</v>
       </c>
       <c r="K6" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L6" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>256.5416321892496</v>
+        <v>347.1828690086734</v>
       </c>
       <c r="N6" t="n">
         <v>402.3419766228525</v>
@@ -8312,7 +8312,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P6" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q6" t="n">
         <v>218.4803792452831</v>
@@ -8531,7 +8531,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
         <v>134.395403</v>
@@ -8540,7 +8540,7 @@
         <v>135.0905202853774</v>
       </c>
       <c r="M9" t="n">
-        <v>397.1900756823314</v>
+        <v>389.722084928306</v>
       </c>
       <c r="N9" t="n">
         <v>402.3419766228525</v>
@@ -8777,7 +8777,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>298.2908936222672</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
         <v>498.5160693172957</v>
@@ -8786,7 +8786,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>331.2012793855346</v>
+        <v>145.1589067078019</v>
       </c>
       <c r="Q12" t="n">
         <v>218.4803792452831</v>
@@ -9005,10 +9005,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K15" t="n">
-        <v>89.00147381534899</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9026,7 +9026,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9245,7 +9245,7 @@
         <v>60.72933541128936</v>
       </c>
       <c r="K18" t="n">
-        <v>275.0438464930818</v>
+        <v>159.4068151580847</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9263,7 +9263,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>102.8433479102859</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9482,7 +9482,7 @@
         <v>60.72933541128936</v>
       </c>
       <c r="K21" t="n">
-        <v>159.4068151580848</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
@@ -9500,7 +9500,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>218.4803792452831</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9716,7 +9716,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
@@ -9734,10 +9734,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>145.158906707802</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9953,10 +9953,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
-        <v>275.0438464930818</v>
+        <v>89.00147381534893</v>
       </c>
       <c r="L27" t="n">
         <v>385.6739591155975</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.843347910286</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10193,7 +10193,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
-        <v>256.0341459363813</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
         <v>385.6739591155975</v>
@@ -10202,7 +10202,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N30" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
@@ -10211,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.44770712425048</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10427,10 +10427,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
-        <v>159.4068151580848</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L33" t="n">
         <v>385.6739591155975</v>
@@ -10439,7 +10439,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N33" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O33" t="n">
         <v>409.6168120477987</v>
@@ -10664,16 +10664,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
-        <v>159.4068151580847</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
-        <v>484.3332662999999</v>
+        <v>298.2908936222671</v>
       </c>
       <c r="N36" t="n">
         <v>498.5160693172957</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>175.8604797789567</v>
+        <v>175.8604797789566</v>
       </c>
       <c r="K41" t="n">
         <v>337.1112290740114</v>
@@ -11138,10 +11138,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>159.4068151580848</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
@@ -11150,7 +11150,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>175.8604797789569</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
         <v>337.1112290740114</v>
@@ -11375,7 +11375,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>112.1249761973247</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -11396,7 +11396,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>51.44770712425048</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23260,19 +23260,19 @@
         <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>345.919068209658</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.02178298298566</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>28.35378553858547</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>53.33473024000175</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S12" t="n">
-        <v>91.92161561464283</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C13" t="n">
         <v>167.3365529312023</v>
@@ -23424,22 +23424,22 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.6120206969282</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
         <v>167.3311041893321</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J13" t="n">
-        <v>49.35397375491782</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.99521853687123</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S13" t="n">
         <v>212.6245410698995</v>
@@ -23475,13 +23475,13 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V13" t="n">
-        <v>252.9363510669392</v>
+        <v>3.508977645909539</v>
       </c>
       <c r="W13" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X13" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.7486738677682</v>
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>4.609553973217032</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>176.7093680426367</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I14" t="n">
         <v>157.2246747536534</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>63.64170646647297</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T14" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
@@ -23560,7 +23560,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.6870717512358</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>145.2563458546444</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>133.6382106096384</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I16" t="n">
         <v>136.9633875020681</v>
       </c>
       <c r="J16" t="n">
-        <v>49.35397375491782</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>32.99521853687123</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R16" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.6245410698995</v>
+        <v>24.45440330166878</v>
       </c>
       <c r="T16" t="n">
         <v>225.9462130081922</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>356.6047327545984</v>
+        <v>156.4274401845836</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>48.41655595633951</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="18">
@@ -23822,10 +23822,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1.750113771095243</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>145.2563458546445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23904,7 +23904,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3311041893321</v>
+        <v>49.62999741797772</v>
       </c>
       <c r="H19" t="n">
         <v>156.6686349500177</v>
@@ -23946,7 +23946,7 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>175.7123868802086</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4545743874302</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>223.2691679788525</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>53.33473024000175</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>91.92161561464282</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.3365529312023</v>
@@ -24135,19 +24135,19 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E22" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3311041893321</v>
+        <v>154.9694712385497</v>
       </c>
       <c r="H22" t="n">
-        <v>106.2406618979172</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I22" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>49.35397375491782</v>
@@ -24183,13 +24183,13 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>222.0536808082035</v>
       </c>
       <c r="D23" t="n">
-        <v>111.2561217803749</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>63.64170646647295</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T23" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3781599023558</v>
@@ -24268,10 +24268,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.6870717512358</v>
@@ -24302,7 +24302,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>81.6885157785874</v>
+        <v>28.35378553858531</v>
       </c>
       <c r="I24" t="n">
         <v>63.56783007605712</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>53.33473024000175</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24375,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3311041893321</v>
+        <v>65.98922671507736</v>
       </c>
       <c r="H25" t="n">
         <v>156.6686349500177</v>
@@ -24411,13 +24411,13 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R25" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>212.6245410698995</v>
       </c>
       <c r="T25" t="n">
-        <v>122.6778609969671</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.0218075870219</v>
@@ -24429,7 +24429,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>265.7876628020879</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>146.9500141815815</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.9746241731992</v>
@@ -24615,10 +24615,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.6686349500177</v>
+        <v>17.79950105853351</v>
       </c>
       <c r="I28" t="n">
         <v>136.9633875020681</v>
@@ -24657,13 +24657,13 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V28" t="n">
-        <v>202.5083780148386</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
         <v>226.1403599323093</v>
@@ -24682,16 +24682,16 @@
         <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>281.7253998176307</v>
       </c>
       <c r="D29" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>31.68524164388714</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3781599023558</v>
@@ -24745,7 +24745,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24761,10 +24761,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
         <v>145.2563458546446</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.3365529312023</v>
@@ -24846,7 +24846,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
         <v>146.1590214098045</v>
@@ -24861,7 +24861,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>49.35397375491782</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T31" t="n">
-        <v>182.5414482920982</v>
+        <v>158.9048557901239</v>
       </c>
       <c r="U31" t="n">
         <v>286.0218075870219</v>
@@ -24903,10 +24903,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>301.0708144428667</v>
+        <v>126.7927867747177</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25013,10 +25013,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>53.33473024000175</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>91.92161561464282</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>167.3311041893321</v>
       </c>
       <c r="H34" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>136.9633875020681</v>
@@ -25125,22 +25125,22 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S34" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>175.5182399560915</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>258.9129860127104</v>
       </c>
       <c r="V34" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.7486738677682</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H35" t="n">
-        <v>97.94872608461543</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I35" t="n">
         <v>157.2246747536534</v>
@@ -25204,22 +25204,22 @@
         <v>63.64170646647295</v>
       </c>
       <c r="S35" t="n">
-        <v>177.493467653868</v>
+        <v>26.71182721650732</v>
       </c>
       <c r="T35" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.6870717512358</v>
@@ -25241,13 +25241,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>91.92161561464249</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>53.33473024000175</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H37" t="n">
-        <v>132.8305965504795</v>
+        <v>55.4312252801129</v>
       </c>
       <c r="I37" t="n">
         <v>136.9633875020681</v>
@@ -25362,7 +25362,7 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T37" t="n">
         <v>225.9462130081922</v>
@@ -25377,10 +25377,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X37" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>333.1427754957364</v>
       </c>
       <c r="C38" t="n">
-        <v>13.8593392713679</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>177.493467653868</v>
       </c>
       <c r="T38" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.6870717512358</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>145.2563458546447</v>
+        <v>81.68851577858754</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3311041893321</v>
@@ -25599,25 +25599,25 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S40" t="n">
-        <v>212.6245410698995</v>
+        <v>207.9262298878733</v>
       </c>
       <c r="T40" t="n">
         <v>225.9462130081922</v>
       </c>
       <c r="U40" t="n">
-        <v>202.5083780148388</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I41" t="n">
         <v>157.2246747536534</v>
@@ -25681,19 +25681,19 @@
         <v>177.493467653868</v>
       </c>
       <c r="T41" t="n">
-        <v>217.5149286494106</v>
+        <v>46.9483295939728</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>190.4344932411905</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25800,16 +25800,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>49.35397375491782</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T43" t="n">
-        <v>225.9462130081922</v>
+        <v>64.36698212307195</v>
       </c>
       <c r="U43" t="n">
-        <v>202.5083780148387</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
         <v>226.1403599323093</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>12.41746946391874</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>325.3930767845979</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>63.64170646647295</v>
+        <v>34.82538638180863</v>
       </c>
       <c r="S44" t="n">
         <v>177.493467653868</v>
@@ -25924,7 +25924,7 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>350.5301170005546</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>53.33473024000175</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>91.92161561464283</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26031,22 +26031,22 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>123.9441998328197</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>49.35397375491782</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T46" t="n">
-        <v>225.9462130081922</v>
+        <v>64.36698212307195</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>997095.9963602993</v>
+        <v>997095.9963602992</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>695027.1565236371</v>
+        <v>695027.1565236374</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>695027.1565236374</v>
+        <v>695027.1565236375</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>695027.1565236374</v>
+        <v>695027.1565236372</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>695027.1565236375</v>
+        <v>695027.1565236374</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>695027.1565236376</v>
+        <v>695027.1565236375</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>695027.1565236374</v>
+        <v>695027.1565236372</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>695027.1565236376</v>
+        <v>695027.1565236375</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>695027.1565236376</v>
+        <v>695027.1565236374</v>
       </c>
     </row>
     <row r="16">
@@ -26322,40 +26322,40 @@
         <v>488351.6451689618</v>
       </c>
       <c r="E2" t="n">
-        <v>329217.5724393255</v>
+        <v>329217.5724393259</v>
       </c>
       <c r="F2" t="n">
+        <v>329217.572439326</v>
+      </c>
+      <c r="G2" t="n">
+        <v>329217.5724393258</v>
+      </c>
+      <c r="H2" t="n">
+        <v>329217.5724393257</v>
+      </c>
+      <c r="I2" t="n">
+        <v>329217.5724393257</v>
+      </c>
+      <c r="J2" t="n">
         <v>329217.5724393259</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>329217.5724393259</v>
+      </c>
+      <c r="L2" t="n">
+        <v>329217.5724393258</v>
+      </c>
+      <c r="M2" t="n">
+        <v>329217.5724393258</v>
+      </c>
+      <c r="N2" t="n">
+        <v>329217.5724393258</v>
+      </c>
+      <c r="O2" t="n">
+        <v>329217.5724393261</v>
+      </c>
+      <c r="P2" t="n">
         <v>329217.572439326</v>
-      </c>
-      <c r="H2" t="n">
-        <v>329217.5724393259</v>
-      </c>
-      <c r="I2" t="n">
-        <v>329217.5724393259</v>
-      </c>
-      <c r="J2" t="n">
-        <v>329217.5724393257</v>
-      </c>
-      <c r="K2" t="n">
-        <v>329217.5724393257</v>
-      </c>
-      <c r="L2" t="n">
-        <v>329217.5724393259</v>
-      </c>
-      <c r="M2" t="n">
-        <v>329217.5724393259</v>
-      </c>
-      <c r="N2" t="n">
-        <v>329217.5724393259</v>
-      </c>
-      <c r="O2" t="n">
-        <v>329217.5724393259</v>
-      </c>
-      <c r="P2" t="n">
-        <v>329217.5724393259</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356189.4298866801</v>
+        <v>356189.4298866802</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>71764.71248808625</v>
+        <v>71764.71248808624</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>89616.02429853742</v>
+        <v>89616.02429853744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>328164.7953523265</v>
       </c>
       <c r="C4" t="n">
-        <v>328164.7953523264</v>
+        <v>328164.7953523265</v>
       </c>
       <c r="D4" t="n">
-        <v>328164.7953523264</v>
+        <v>328164.7953523265</v>
       </c>
       <c r="E4" t="n">
-        <v>64508.99855490232</v>
+        <v>64508.99855490231</v>
       </c>
       <c r="F4" t="n">
         <v>64508.9985549023</v>
@@ -26435,31 +26435,31 @@
         <v>64508.99855490231</v>
       </c>
       <c r="H4" t="n">
-        <v>64508.99855490231</v>
+        <v>64508.9985549023</v>
       </c>
       <c r="I4" t="n">
-        <v>64508.99855490231</v>
+        <v>64508.9985549023</v>
       </c>
       <c r="J4" t="n">
         <v>64508.99855490231</v>
       </c>
       <c r="K4" t="n">
-        <v>64508.99855490231</v>
+        <v>64508.9985549023</v>
       </c>
       <c r="L4" t="n">
         <v>64508.99855490231</v>
       </c>
       <c r="M4" t="n">
-        <v>64508.99855490231</v>
+        <v>64508.9985549023</v>
       </c>
       <c r="N4" t="n">
-        <v>64508.99855490231</v>
+        <v>64508.9985549023</v>
       </c>
       <c r="O4" t="n">
-        <v>64508.99855490231</v>
+        <v>64508.9985549023</v>
       </c>
       <c r="P4" t="n">
-        <v>64508.99855490231</v>
+        <v>64508.9985549023</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17963.98196252604</v>
+        <v>17963.98196252603</v>
       </c>
       <c r="C6" t="n">
-        <v>109882.794330266</v>
+        <v>109882.7943302659</v>
       </c>
       <c r="D6" t="n">
-        <v>109882.794330266</v>
+        <v>109882.7943302659</v>
       </c>
       <c r="E6" t="n">
-        <v>-136773.1171179317</v>
+        <v>-143403.7034816663</v>
       </c>
       <c r="F6" t="n">
-        <v>219416.3127687488</v>
+        <v>212785.7264050141</v>
       </c>
       <c r="G6" t="n">
-        <v>219416.3127687488</v>
+        <v>212785.7264050138</v>
       </c>
       <c r="H6" t="n">
-        <v>219416.3127687488</v>
+        <v>212785.7264050138</v>
       </c>
       <c r="I6" t="n">
-        <v>219416.3127687488</v>
+        <v>212785.7264050138</v>
       </c>
       <c r="J6" t="n">
-        <v>147651.6002806624</v>
+        <v>141021.0139169276</v>
       </c>
       <c r="K6" t="n">
-        <v>219416.3127687486</v>
+        <v>212785.7264050139</v>
       </c>
       <c r="L6" t="n">
-        <v>219416.3127687488</v>
+        <v>212785.7264050138</v>
       </c>
       <c r="M6" t="n">
-        <v>129800.2884702113</v>
+        <v>123169.7021064764</v>
       </c>
       <c r="N6" t="n">
-        <v>219416.3127687488</v>
+        <v>212785.7264050138</v>
       </c>
       <c r="O6" t="n">
-        <v>219416.3127687488</v>
+        <v>212785.7264050141</v>
       </c>
       <c r="P6" t="n">
-        <v>219416.3127687488</v>
+        <v>212785.7264050141</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>309.7051744303109</v>
+        <v>309.705174430311</v>
       </c>
       <c r="F3" t="n">
-        <v>309.7051744303109</v>
+        <v>309.705174430311</v>
       </c>
       <c r="G3" t="n">
         <v>309.705174430311</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>309.7051744303109</v>
+        <v>309.705174430311</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>359.6090925448123</v>
+        <v>359.6090925448124</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.6090925448123</v>
+        <v>359.6090925448124</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>383.716409991395</v>
+        <v>318.8407562267877</v>
       </c>
       <c r="C2" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D2" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E2" t="n">
-        <v>108.8342284136849</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>133.0100561389383</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>315.775687732787</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I2" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W2" t="n">
         <v>350.5301170005546</v>
@@ -27447,7 +27447,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
         <v>171.025583927401</v>
@@ -27472,7 +27472,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>110.4625155221328</v>
@@ -27514,16 +27514,16 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>128.2980026628152</v>
       </c>
       <c r="X3" t="n">
-        <v>137.4513706093945</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
         <v>203.671151418586</v>
@@ -27548,7 +27548,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F4" t="n">
-        <v>134.5824476993985</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G4" t="n">
         <v>167.8895889301081</v>
@@ -27563,7 +27563,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>3.197836007427327</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27621,19 +27621,19 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D5" t="n">
-        <v>257.5256550835546</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E5" t="n">
-        <v>383.1180357552875</v>
+        <v>222.9139659467212</v>
       </c>
       <c r="F5" t="n">
-        <v>133.0100561389383</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>140.5709580622284</v>
       </c>
       <c r="H5" t="n">
-        <v>63.86009604655084</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I5" t="n">
         <v>205.224307868124</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>222.9651171964204</v>
@@ -27684,7 +27684,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="6">
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>138.6347089909499</v>
       </c>
       <c r="C6" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>21.90558210957266</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27748,7 +27748,7 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>224.6571770672012</v>
@@ -27757,10 +27757,10 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.170564849075447</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C7" t="n">
         <v>167.3365529312023</v>
@@ -27794,13 +27794,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>153.7585467974036</v>
+        <v>78.45867480140757</v>
       </c>
       <c r="J7" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>109.4326026497925</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D8" t="n">
-        <v>82.32092541299585</v>
+        <v>142.1959288763845</v>
       </c>
       <c r="E8" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F8" t="n">
-        <v>181.2187285124509</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>222.9651171964204</v>
@@ -27918,7 +27918,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
-        <v>96.57779178956685</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
         <v>386.6870717512358</v>
@@ -27940,7 +27940,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>30.12746102708313</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>65.6274767299173</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27997,7 +27997,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>203.671151418586</v>
@@ -28028,13 +28028,13 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H10" t="n">
-        <v>161.6340720089168</v>
+        <v>86.33420001292077</v>
       </c>
       <c r="I10" t="n">
         <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T10" t="n">
-        <v>64.19374906773268</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U10" t="n">
         <v>286.0522703910642</v>
@@ -31758,13 +31758,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I11" t="n">
-        <v>47.99963311447061</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J11" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K11" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L11" t="n">
         <v>196.477585181553</v>
@@ -31773,10 +31773,10 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N11" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O11" t="n">
-        <v>209.7762319931459</v>
+        <v>209.776231993146</v>
       </c>
       <c r="P11" t="n">
         <v>179.0391606614945</v>
@@ -31785,16 +31785,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R11" t="n">
-        <v>78.20911623440411</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S11" t="n">
-        <v>28.3714840696712</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T11" t="n">
-        <v>5.450188547009792</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09960367418864262</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6661582997180273</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H12" t="n">
-        <v>6.433686736750422</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I12" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J12" t="n">
-        <v>62.93735058871065</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K12" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L12" t="n">
-        <v>144.641081699741</v>
+        <v>144.6410816997411</v>
       </c>
       <c r="M12" t="n">
-        <v>168.7893200645194</v>
+        <v>168.7893200645195</v>
       </c>
       <c r="N12" t="n">
         <v>173.2566711183303</v>
       </c>
       <c r="O12" t="n">
-        <v>158.4960056351045</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P12" t="n">
-        <v>127.2070177768573</v>
+        <v>127.2070177768574</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.03452260962048</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R12" t="n">
-        <v>41.36024952108946</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S12" t="n">
         <v>12.37359824256949</v>
       </c>
       <c r="T12" t="n">
-        <v>2.685085427372223</v>
+        <v>2.685085427372224</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0438262039288176</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5584847407759704</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H13" t="n">
-        <v>4.965437058899086</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I13" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J13" t="n">
-        <v>39.48487117286111</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K13" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L13" t="n">
-        <v>83.03144955136567</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M13" t="n">
-        <v>87.54502168363689</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N13" t="n">
-        <v>85.4633967407447</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O13" t="n">
-        <v>78.93927954167992</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P13" t="n">
-        <v>67.54619082985008</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.76548133897695</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R13" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S13" t="n">
-        <v>9.732865891523046</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T13" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,13 +31995,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I14" t="n">
-        <v>47.99963311447061</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J14" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K14" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L14" t="n">
         <v>196.477585181553</v>
@@ -32010,10 +32010,10 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N14" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O14" t="n">
-        <v>209.7762319931459</v>
+        <v>209.776231993146</v>
       </c>
       <c r="P14" t="n">
         <v>179.0391606614945</v>
@@ -32022,16 +32022,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R14" t="n">
-        <v>78.20911623440411</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S14" t="n">
-        <v>28.3714840696712</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T14" t="n">
-        <v>5.450188547009792</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09960367418864262</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6661582997180273</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H15" t="n">
-        <v>6.433686736750422</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I15" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J15" t="n">
-        <v>62.93735058871065</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K15" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L15" t="n">
-        <v>144.641081699741</v>
+        <v>144.6410816997411</v>
       </c>
       <c r="M15" t="n">
-        <v>168.7893200645194</v>
+        <v>168.7893200645195</v>
       </c>
       <c r="N15" t="n">
         <v>173.2566711183303</v>
       </c>
       <c r="O15" t="n">
-        <v>158.4960056351045</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P15" t="n">
-        <v>127.2070177768573</v>
+        <v>127.2070177768574</v>
       </c>
       <c r="Q15" t="n">
-        <v>85.03452260962048</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R15" t="n">
-        <v>41.36024952108946</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S15" t="n">
         <v>12.37359824256949</v>
       </c>
       <c r="T15" t="n">
-        <v>2.685085427372223</v>
+        <v>2.685085427372224</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0438262039288176</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5584847407759704</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H16" t="n">
-        <v>4.965437058899086</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I16" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J16" t="n">
-        <v>39.48487117286111</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K16" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L16" t="n">
-        <v>83.03144955136567</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M16" t="n">
-        <v>87.54502168363689</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N16" t="n">
-        <v>85.4633967407447</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O16" t="n">
-        <v>78.93927954167992</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P16" t="n">
-        <v>67.54619082985008</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.76548133897695</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R16" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S16" t="n">
-        <v>9.732865891523046</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T16" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34128,13 +34128,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I41" t="n">
-        <v>47.99963311447062</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J41" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K41" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L41" t="n">
         <v>196.477585181553</v>
@@ -34143,7 +34143,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N41" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O41" t="n">
         <v>209.776231993146</v>
@@ -34155,16 +34155,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R41" t="n">
-        <v>78.20911623440412</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S41" t="n">
-        <v>28.37148406967121</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T41" t="n">
-        <v>5.450188547009793</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09960367418864263</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6661582997180274</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H42" t="n">
-        <v>6.433686736750424</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I42" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J42" t="n">
-        <v>62.93735058871066</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K42" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L42" t="n">
-        <v>144.641081699741</v>
+        <v>144.6410816997411</v>
       </c>
       <c r="M42" t="n">
         <v>168.7893200645195</v>
@@ -34225,16 +34225,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O42" t="n">
-        <v>158.4960056351045</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P42" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q42" t="n">
-        <v>85.0345226096205</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R42" t="n">
-        <v>41.36024952108947</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S42" t="n">
         <v>12.37359824256949</v>
@@ -34243,7 +34243,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04382620392881761</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5584847407759705</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H43" t="n">
-        <v>4.965437058899087</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I43" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J43" t="n">
-        <v>39.48487117286112</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K43" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L43" t="n">
-        <v>83.03144955136568</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M43" t="n">
-        <v>87.5450216836369</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N43" t="n">
-        <v>85.46339674074473</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O43" t="n">
-        <v>78.93927954167994</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P43" t="n">
-        <v>67.54619082985009</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.76548133897696</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R43" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S43" t="n">
-        <v>9.732865891523048</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T43" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,13 +34365,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I44" t="n">
-        <v>47.99963311447062</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J44" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K44" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L44" t="n">
         <v>196.477585181553</v>
@@ -34380,7 +34380,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N44" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O44" t="n">
         <v>209.776231993146</v>
@@ -34392,16 +34392,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R44" t="n">
-        <v>78.20911623440412</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S44" t="n">
-        <v>28.37148406967121</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T44" t="n">
-        <v>5.450188547009793</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U44" t="n">
-        <v>0.09960367418864263</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6661582997180274</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H45" t="n">
-        <v>6.433686736750424</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I45" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J45" t="n">
-        <v>62.93735058871066</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K45" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L45" t="n">
-        <v>144.641081699741</v>
+        <v>144.6410816997411</v>
       </c>
       <c r="M45" t="n">
         <v>168.7893200645195</v>
@@ -34462,16 +34462,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O45" t="n">
-        <v>158.4960056351045</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P45" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q45" t="n">
-        <v>85.0345226096205</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R45" t="n">
-        <v>41.36024952108947</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S45" t="n">
         <v>12.37359824256949</v>
@@ -34480,7 +34480,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04382620392881761</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5584847407759705</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H46" t="n">
-        <v>4.965437058899087</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I46" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J46" t="n">
-        <v>39.48487117286112</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K46" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L46" t="n">
-        <v>83.03144955136568</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M46" t="n">
-        <v>87.5450216836369</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N46" t="n">
-        <v>85.46339674074473</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O46" t="n">
-        <v>78.93927954167994</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P46" t="n">
-        <v>67.54619082985009</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.76548133897696</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R46" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S46" t="n">
-        <v>9.732865891523048</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T46" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>122.5236243051553</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L2" t="n">
         <v>204.4954085367308</v>
@@ -34719,7 +34719,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.059542658712941</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>140.6484434930818</v>
       </c>
       <c r="L3" t="n">
-        <v>192.4911078726685</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M3" t="n">
-        <v>274.2838073416025</v>
+        <v>141.6613176266638</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>204.4954085367308</v>
       </c>
       <c r="M5" t="n">
-        <v>242.906497435955</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N5" t="n">
         <v>231.1630643817873</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
-        <v>117.9609491152817</v>
+        <v>208.6021859347056</v>
       </c>
       <c r="N6" t="n">
         <v>274.2838073416025</v>
@@ -35032,7 +35032,7 @@
         <v>270.5854737144654</v>
       </c>
       <c r="P6" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>81.99814951141209</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>258.6093926083635</v>
+        <v>251.1414018543382</v>
       </c>
       <c r="N9" t="n">
         <v>274.2838073416025</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>105.0124396425415</v>
+        <v>105.0124396425416</v>
       </c>
       <c r="K11" t="n">
-        <v>280.8981351873248</v>
+        <v>280.8981351873249</v>
       </c>
       <c r="L11" t="n">
-        <v>400.9729937182838</v>
+        <v>400.9729937182839</v>
       </c>
       <c r="M11" t="n">
         <v>461.5256681281613</v>
       </c>
       <c r="N11" t="n">
-        <v>453.3197218150997</v>
+        <v>453.3197218150998</v>
       </c>
       <c r="O11" t="n">
         <v>381.4626643702566</v>
       </c>
       <c r="P11" t="n">
-        <v>288.2576462984486</v>
+        <v>288.2576462984487</v>
       </c>
       <c r="Q11" t="n">
         <v>138.5104960466975</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>70.4053413427358</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K12" t="n">
         <v>248.2184001629003</v>
@@ -35497,16 +35497,16 @@
         <v>395.2245205299612</v>
       </c>
       <c r="M12" t="n">
-        <v>328.4995306128187</v>
+        <v>514.5419032905515</v>
       </c>
       <c r="N12" t="n">
-        <v>543.7145711543759</v>
+        <v>543.714571154376</v>
       </c>
       <c r="O12" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P12" t="n">
-        <v>327.78324993342</v>
+        <v>141.7408772556873</v>
       </c>
       <c r="Q12" t="n">
         <v>167.0326721210326</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L13" t="n">
         <v>120.492579780375</v>
@@ -35585,7 +35585,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P13" t="n">
-        <v>73.66821272853392</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>105.0124396425415</v>
+        <v>105.0124396425416</v>
       </c>
       <c r="K14" t="n">
-        <v>280.8981351873248</v>
+        <v>280.8981351873249</v>
       </c>
       <c r="L14" t="n">
-        <v>400.9729937182838</v>
+        <v>400.9729937182839</v>
       </c>
       <c r="M14" t="n">
         <v>461.5256681281613</v>
       </c>
       <c r="N14" t="n">
-        <v>453.3197218150997</v>
+        <v>453.3197218150998</v>
       </c>
       <c r="O14" t="n">
         <v>381.4626643702566</v>
       </c>
       <c r="P14" t="n">
-        <v>288.2576462984486</v>
+        <v>288.2576462984487</v>
       </c>
       <c r="Q14" t="n">
         <v>138.5104960466975</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>70.4053413427358</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>62.17602748516745</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L15" t="n">
         <v>395.2245205299612</v>
@@ -35737,16 +35737,16 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N15" t="n">
-        <v>543.7145711543759</v>
+        <v>543.714571154376</v>
       </c>
       <c r="O15" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P15" t="n">
-        <v>327.78324993342</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L16" t="n">
         <v>120.492579780375</v>
@@ -35822,7 +35822,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P16" t="n">
-        <v>73.66821272853392</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>248.2184001629003</v>
+        <v>132.5813688279032</v>
       </c>
       <c r="L18" t="n">
         <v>395.2245205299612</v>
@@ -35983,7 +35983,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>132.5813688279032</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L21" t="n">
         <v>395.2245205299612</v>
@@ -36220,7 +36220,7 @@
         <v>327.78324993342</v>
       </c>
       <c r="Q21" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>248.2184001629003</v>
@@ -36454,10 +36454,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P24" t="n">
-        <v>141.7408772556873</v>
+        <v>327.78324993342</v>
       </c>
       <c r="Q24" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K27" t="n">
-        <v>248.2184001629003</v>
+        <v>62.17602748516742</v>
       </c>
       <c r="L27" t="n">
         <v>395.2245205299612</v>
@@ -36694,7 +36694,7 @@
         <v>327.78324993342</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K30" t="n">
-        <v>229.2086996061998</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L30" t="n">
         <v>395.2245205299612</v>
@@ -36922,7 +36922,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N30" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O30" t="n">
         <v>429.0814793495699</v>
@@ -36931,7 +36931,7 @@
         <v>327.78324993342</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K33" t="n">
-        <v>132.5813688279032</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L33" t="n">
         <v>395.2245205299612</v>
@@ -37159,7 +37159,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N33" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O33" t="n">
         <v>429.0814793495699</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K36" t="n">
-        <v>132.5813688279032</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L36" t="n">
         <v>395.2245205299612</v>
       </c>
       <c r="M36" t="n">
-        <v>514.5419032905515</v>
+        <v>328.4995306128187</v>
       </c>
       <c r="N36" t="n">
         <v>543.714571154376</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>105.0124396425416</v>
+        <v>105.0124396425415</v>
       </c>
       <c r="K41" t="n">
         <v>280.8981351873249</v>
@@ -37791,7 +37791,7 @@
         <v>461.5256681281613</v>
       </c>
       <c r="N41" t="n">
-        <v>453.3197218150997</v>
+        <v>453.3197218150998</v>
       </c>
       <c r="O41" t="n">
         <v>381.4626643702566</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K42" t="n">
-        <v>132.5813688279032</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L42" t="n">
         <v>395.2245205299612</v>
@@ -37870,13 +37870,13 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N42" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O42" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P42" t="n">
-        <v>327.78324993342</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q42" t="n">
         <v>167.0326721210326</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L43" t="n">
         <v>120.492579780375</v>
@@ -37955,7 +37955,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P43" t="n">
-        <v>73.66821272853393</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>105.0124396425417</v>
+        <v>105.0124396425416</v>
       </c>
       <c r="K44" t="n">
         <v>280.8981351873249</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>51.39564078603539</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>248.2184001629003</v>
@@ -38113,10 +38113,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P45" t="n">
-        <v>327.78324993342</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L46" t="n">
         <v>120.492579780375</v>
@@ -38192,7 +38192,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P46" t="n">
-        <v>73.66821272853393</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
